--- a/OpenWeatherMapTestAutomation/OpenWeatherMapAutomation/Data/KeywordAndOutcome.xlsx
+++ b/OpenWeatherMapTestAutomation/OpenWeatherMapAutomation/Data/KeywordAndOutcome.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HaiAnh\Relax\NABTest\OpenWeatherMapTestAutomation\OpenWeatherMapAutomation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HaiAnh\Relax\NABTest\OpenWeatherMap\OpenWeatherMapTestAutomation\OpenWeatherMapAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC971C8-D9F4-4080-B6BA-CD3ACE889FEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75036A6C-6258-4FD4-89D8-6111DE044701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{994E5433-B462-4FB9-BD48-88E75A90F1CB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>Keyword</t>
   </si>
@@ -57,12 +57,6 @@
     <t>london,gb</t>
   </si>
   <si>
-    <t>london,ne</t>
-  </si>
-  <si>
-    <t>london#$</t>
-  </si>
-  <si>
     <t>Matching Count</t>
   </si>
   <si>
@@ -72,17 +66,119 @@
     <t>,gb</t>
   </si>
   <si>
-    <t>londo,gb</t>
-  </si>
-  <si>
     <t>gb</t>
+  </si>
+  <si>
+    <t>london,abcgbabc</t>
+  </si>
+  <si>
+    <t>london,rr</t>
+  </si>
+  <si>
+    <t>abc,</t>
+  </si>
+  <si>
+    <t>abc,abcgbabc</t>
+  </si>
+  <si>
+    <t>abc,rr</t>
+  </si>
+  <si>
+    <t>,abcgbabc</t>
+  </si>
+  <si>
+    <t>,rr</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>london@#</t>
+  </si>
+  <si>
+    <t>abc,gb</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Search with &lt;valid city&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;valid city&gt; &lt;,&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;valid city&gt; &lt;,&gt; &lt;valid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;valid city&gt; &lt;,&gt; &lt;explicit valid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;valid city&gt; &lt;,&gt; &lt;invalid country code&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with &lt;invalid city&gt; </t>
+  </si>
+  <si>
+    <t>Search with &lt;invalid city&gt; &lt;,&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;invalid city&gt; &lt;,&gt; &lt;valid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;invalid city&gt; &lt;,&gt; &lt;explicit valid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;invalid city&gt; &lt;,&gt; &lt;invalid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;,&gt; &lt;valid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;,&gt; &lt;explicit valid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;,&gt; &lt;invalid country code&gt;</t>
+  </si>
+  <si>
+    <t>Search with &lt;,&gt;</t>
+  </si>
+  <si>
+    <t>Search with less than 3 characters only</t>
+  </si>
+  <si>
+    <t>Search with special characters</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass???</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Show very weird cities</t>
+  </si>
+  <si>
+    <t>Does not show "not found"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +190,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,14 +220,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BDB54E-81B4-4A67-8FA1-21B9BA0A8868}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +554,11 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,10 +566,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -470,10 +588,19 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -481,79 +608,271 @@
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{13AC8047-C11B-4CF5-B199-E3CF89C354B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>